--- a/data/trans_orig/P32D_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>79666</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64519</v>
+        <v>63773</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96885</v>
+        <v>98472</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2629818169563835</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2129798694678973</v>
+        <v>0.2105198624104128</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3198245811561327</v>
+        <v>0.3250635329520646</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>103</v>
@@ -762,19 +762,19 @@
         <v>70093</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58935</v>
+        <v>59539</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>82101</v>
+        <v>81209</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4028334657218587</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3387052781870477</v>
+        <v>0.3421802274184377</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4718428843520079</v>
+        <v>0.4667167584954674</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>186</v>
@@ -783,19 +783,19 @@
         <v>149759</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>131155</v>
+        <v>129973</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>170357</v>
+        <v>169434</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3140039866256341</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2749969751795956</v>
+        <v>0.2725188240825571</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.357192930987314</v>
+        <v>0.3552573577930641</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>114647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>98079</v>
+        <v>96943</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>132790</v>
+        <v>133425</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3784552760667798</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.323765288190099</v>
+        <v>0.3200131728670795</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4383470551326681</v>
+        <v>0.4404429781380015</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>85</v>
@@ -833,19 +833,19 @@
         <v>58945</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48752</v>
+        <v>48743</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69533</v>
+        <v>70926</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3387631359611921</v>
+        <v>0.3387631359611922</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2801825479046846</v>
+        <v>0.2801343639982849</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3996166094084164</v>
+        <v>0.4076227911828235</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>206</v>
@@ -854,19 +854,19 @@
         <v>173591</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>153274</v>
+        <v>155191</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>194107</v>
+        <v>194318</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3639743662964623</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3213741214265114</v>
+        <v>0.3253930314799983</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4069902751138251</v>
+        <v>0.4074316890190451</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>60514</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46792</v>
+        <v>46799</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76815</v>
+        <v>78169</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1997601556195583</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1544637344127131</v>
+        <v>0.1544875870001955</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2535701160795774</v>
+        <v>0.2580410968724725</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>44</v>
@@ -904,19 +904,19 @@
         <v>34670</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26508</v>
+        <v>26502</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44972</v>
+        <v>46745</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.199254021268837</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1523444811851336</v>
+        <v>0.1523083479340369</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2584575791061902</v>
+        <v>0.268646706975898</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>97</v>
@@ -925,19 +925,19 @@
         <v>95184</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>76582</v>
+        <v>78311</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>113472</v>
+        <v>114206</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1995755022890763</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1605716289292366</v>
+        <v>0.1641971798751351</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2379198722210073</v>
+        <v>0.2394585594695301</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>27672</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18242</v>
+        <v>17246</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41653</v>
+        <v>40917</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0913471966745427</v>
+        <v>0.09134719667454273</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06021756133543137</v>
+        <v>0.05693038682547052</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1375002361298663</v>
+        <v>0.1350687544886784</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -975,19 +975,19 @@
         <v>3814</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1259</v>
+        <v>1377</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9001</v>
+        <v>8449</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02191985405500822</v>
+        <v>0.02191985405500823</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007235314038335668</v>
+        <v>0.007911468864274481</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05172909395840451</v>
+        <v>0.04855752384398226</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -996,19 +996,19 @@
         <v>31486</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21551</v>
+        <v>21275</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45379</v>
+        <v>46474</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06601797327182538</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04518695571993741</v>
+        <v>0.04460805173661745</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09514798044421503</v>
+        <v>0.09744274670304687</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>11570</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6398</v>
+        <v>5834</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22718</v>
+        <v>21942</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03819174222616268</v>
+        <v>0.03819174222616269</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02111995626938222</v>
+        <v>0.01925937624832389</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07499451142221776</v>
+        <v>0.07243108037614206</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1046,19 +1046,19 @@
         <v>2818</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7553</v>
+        <v>7232</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01619381662069948</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004031013683549993</v>
+        <v>0.004077493663955366</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04340873844293473</v>
+        <v>0.04156282032303989</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1067,19 +1067,19 @@
         <v>14387</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7298</v>
+        <v>7639</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24736</v>
+        <v>26329</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03016622445414357</v>
+        <v>0.03016622445414358</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01530175682140458</v>
+        <v>0.01601588784718116</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05186565435848183</v>
+        <v>0.05520506435541669</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>7286</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3295</v>
+        <v>3275</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14698</v>
+        <v>15301</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02405241135514692</v>
+        <v>0.02405241135514693</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01087658398373188</v>
+        <v>0.01081021447691219</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04851863694576654</v>
+        <v>0.05050882254650041</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1117,19 +1117,19 @@
         <v>3660</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1001</v>
+        <v>973</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10258</v>
+        <v>10325</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.02103570637240451</v>
+        <v>0.0210357063724045</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005754167666187558</v>
+        <v>0.005594146228166024</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05895224898824671</v>
+        <v>0.05933996141183102</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1138,19 +1138,19 @@
         <v>10946</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6065</v>
+        <v>5632</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>21148</v>
+        <v>18963</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02295182487775994</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01271654165723495</v>
+        <v>0.01180790429239645</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0443409404977109</v>
+        <v>0.03976120549338034</v>
       </c>
     </row>
     <row r="10">
@@ -1264,16 +1264,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5905</v>
+        <v>5415</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.005211401101426157</v>
+        <v>0.005211401101426158</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01949215156127164</v>
+        <v>0.0178746786711582</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6103</v>
+        <v>6265</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003310122185098315</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01279585660219601</v>
+        <v>0.01313609429329938</v>
       </c>
     </row>
     <row r="13">
@@ -1399,19 +1399,19 @@
         <v>49991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38089</v>
+        <v>37982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64304</v>
+        <v>65264</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2233939007280837</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1702057287041275</v>
+        <v>0.1697290457139964</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2873508131557934</v>
+        <v>0.2916430539346649</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>90</v>
@@ -1420,19 +1420,19 @@
         <v>60648</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51120</v>
+        <v>50599</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70887</v>
+        <v>70177</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4163493067152476</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.350937770841288</v>
+        <v>0.3473587903320886</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4866351176729158</v>
+        <v>0.4817663105591584</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>142</v>
@@ -1441,19 +1441,19 @@
         <v>110640</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>94009</v>
+        <v>94267</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>126650</v>
+        <v>127606</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.299473006528433</v>
+        <v>0.2994730065284328</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2544573061660621</v>
+        <v>0.2551569248806674</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3428088666290502</v>
+        <v>0.3453976773932973</v>
       </c>
     </row>
     <row r="15">
@@ -1470,19 +1470,19 @@
         <v>98338</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>83885</v>
+        <v>84040</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>114660</v>
+        <v>114173</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.439440312426944</v>
+        <v>0.4394403124269441</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3748552861845959</v>
+        <v>0.3755457114580129</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5123773447086062</v>
+        <v>0.5102007057506401</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>69</v>
@@ -1491,19 +1491,19 @@
         <v>46602</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>37341</v>
+        <v>37513</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>56486</v>
+        <v>56275</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3199216381378822</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2563434259166942</v>
+        <v>0.2575229680271241</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3877753376046556</v>
+        <v>0.3863289461714121</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>170</v>
@@ -1512,19 +1512,19 @@
         <v>144940</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>127389</v>
+        <v>127623</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>163722</v>
+        <v>163545</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3923160879470147</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.344808733991664</v>
+        <v>0.3454432851826451</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4431538923580153</v>
+        <v>0.44267403891118</v>
       </c>
     </row>
     <row r="16">
@@ -1541,19 +1541,19 @@
         <v>47008</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35274</v>
+        <v>35153</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60818</v>
+        <v>60821</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2100633349214178</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1576280129228152</v>
+        <v>0.1570867016897426</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2717741613181762</v>
+        <v>0.2717897842671754</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1562,19 +1562,19 @@
         <v>15951</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10405</v>
+        <v>10331</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22633</v>
+        <v>23560</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1095032855762672</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0714311510001563</v>
+        <v>0.07091894803533984</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.15537679054507</v>
+        <v>0.1617392072976687</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -1583,19 +1583,19 @@
         <v>62959</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49307</v>
+        <v>49390</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>78585</v>
+        <v>79724</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1704141807851144</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1334620631739415</v>
+        <v>0.133685249535681</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2127097637575059</v>
+        <v>0.2157918069059831</v>
       </c>
     </row>
     <row r="17">
@@ -1612,19 +1612,19 @@
         <v>13114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6659</v>
+        <v>6491</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21781</v>
+        <v>24037</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05860180571084963</v>
+        <v>0.05860180571084964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02975853110438141</v>
+        <v>0.02900384822715442</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09733295210530371</v>
+        <v>0.10741354149787</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1633,19 +1633,19 @@
         <v>9088</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4853</v>
+        <v>5133</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15527</v>
+        <v>15998</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06239156202917703</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03331486726436814</v>
+        <v>0.03523779443470523</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.106591721211656</v>
+        <v>0.1098229728550041</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -1654,19 +1654,19 @@
         <v>22202</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14410</v>
+        <v>14199</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34541</v>
+        <v>34621</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06009604356557319</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03900336665942458</v>
+        <v>0.03843285147418346</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09349332608966107</v>
+        <v>0.09370990939635439</v>
       </c>
     </row>
     <row r="18">
@@ -1683,19 +1683,19 @@
         <v>4433</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1166</v>
+        <v>1120</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11089</v>
+        <v>10185</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01981165834647314</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.005208773322725205</v>
+        <v>0.005003345147820725</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04955328289738035</v>
+        <v>0.04551228013824541</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -1704,19 +1704,19 @@
         <v>5896</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2068</v>
+        <v>2200</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13335</v>
+        <v>12932</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04047471822802103</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01419798921439141</v>
+        <v>0.01510127647550922</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09154131692564677</v>
+        <v>0.0887762537056721</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -1725,19 +1725,19 @@
         <v>10329</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5451</v>
+        <v>5427</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>18807</v>
+        <v>20683</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02795875902419041</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01475436019613945</v>
+        <v>0.01469049038555734</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05090582982617686</v>
+        <v>0.05598243844898064</v>
       </c>
     </row>
     <row r="19">
@@ -1754,19 +1754,19 @@
         <v>8560</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3916</v>
+        <v>4049</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15872</v>
+        <v>15592</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03825063433932895</v>
+        <v>0.03825063433932896</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01749752439497223</v>
+        <v>0.01809414373527398</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07092695667176317</v>
+        <v>0.06967682172916639</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1778,16 +1778,16 @@
         <v>1672</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11633</v>
+        <v>11553</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03324151454951782</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01147706518624386</v>
+        <v>0.011480053910224</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07985732752533785</v>
+        <v>0.07931122655064926</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -1796,19 +1796,19 @@
         <v>13402</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7564</v>
+        <v>7724</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22576</v>
+        <v>23004</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03627562175802292</v>
+        <v>0.0362756217580229</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02047383464236412</v>
+        <v>0.02090724523398396</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06110736148158242</v>
+        <v>0.06226563387507783</v>
       </c>
     </row>
     <row r="20">
@@ -1919,19 +1919,19 @@
         <v>2336</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7220</v>
+        <v>6910</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01043835352690283</v>
+        <v>0.01043835352690284</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002689677718971712</v>
+        <v>0.002758438882138807</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03226278827620924</v>
+        <v>0.03087879824185542</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -1940,19 +1940,19 @@
         <v>2639</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>720</v>
+        <v>626</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6773</v>
+        <v>6321</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01811797476388712</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004942162293602445</v>
+        <v>0.004296869594799693</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04649460757336843</v>
+        <v>0.04339198515360533</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -1961,19 +1961,19 @@
         <v>4975</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2018</v>
+        <v>1977</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10226</v>
+        <v>9579</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01346630039165149</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005462525615698422</v>
+        <v>0.00535202250242289</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02768048216863191</v>
+        <v>0.02592722343446284</v>
       </c>
     </row>
     <row r="23">
@@ -2065,19 +2065,19 @@
         <v>33618</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24869</v>
+        <v>24447</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>45458</v>
+        <v>45087</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1480539638758618</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1095227809093701</v>
+        <v>0.1076653770627872</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2001937154881957</v>
+        <v>0.1985590911971159</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>26</v>
@@ -2086,19 +2086,19 @@
         <v>15880</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10438</v>
+        <v>10996</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20681</v>
+        <v>21666</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.346035961025677</v>
+        <v>0.3460359610256769</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2274654658343378</v>
+        <v>0.2396169539831584</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4506561530574137</v>
+        <v>0.4721208662267897</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>64</v>
@@ -2107,19 +2107,19 @@
         <v>49498</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>37918</v>
+        <v>37991</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>62207</v>
+        <v>62419</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1813387028963557</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1389157508044106</v>
+        <v>0.1391803198579693</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2278979172517769</v>
+        <v>0.228675791982119</v>
       </c>
     </row>
     <row r="25">
@@ -2136,19 +2136,19 @@
         <v>93671</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>77009</v>
+        <v>77890</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>108138</v>
+        <v>108837</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4125236901605586</v>
+        <v>0.4125236901605587</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3391447508720049</v>
+        <v>0.3430252458022264</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.476233724378297</v>
+        <v>0.4793126442809234</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -2157,19 +2157,19 @@
         <v>13159</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8265</v>
+        <v>8503</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18977</v>
+        <v>18323</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2867405559436977</v>
+        <v>0.2867405559436976</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1800987986347561</v>
+        <v>0.1852810126157744</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4135286053299432</v>
+        <v>0.3992820050095754</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>121</v>
@@ -2178,19 +2178,19 @@
         <v>106830</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>92857</v>
+        <v>89641</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>124509</v>
+        <v>123897</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3913770260402857</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3401856210734691</v>
+        <v>0.3284054940465593</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4561453222651098</v>
+        <v>0.4539016549851566</v>
       </c>
     </row>
     <row r="26">
@@ -2207,19 +2207,19 @@
         <v>57057</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43319</v>
+        <v>44438</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72505</v>
+        <v>72004</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2512775496540404</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1907762031878196</v>
+        <v>0.1957020307852599</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3193104216551166</v>
+        <v>0.3171026555524021</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -2228,19 +2228,19 @@
         <v>12106</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7471</v>
+        <v>7489</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18153</v>
+        <v>18169</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2638046397367415</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1627990185076032</v>
+        <v>0.163187762657492</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3955795169398755</v>
+        <v>0.3959297449340464</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>69</v>
@@ -2249,19 +2249,19 @@
         <v>69163</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>55173</v>
+        <v>55222</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>85695</v>
+        <v>86157</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2533836043968532</v>
+        <v>0.2533836043968533</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2021275897782071</v>
+        <v>0.202309359856794</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3139481420172772</v>
+        <v>0.3156422920409211</v>
       </c>
     </row>
     <row r="27">
@@ -2278,19 +2278,19 @@
         <v>10755</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5476</v>
+        <v>5311</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>19866</v>
+        <v>18615</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04736347542680843</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02411529516385353</v>
+        <v>0.02338902194918774</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08749030904078173</v>
+        <v>0.08197789502576751</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4041</v>
+        <v>3970</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02612155382354988</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08806047138246766</v>
+        <v>0.08651155880949836</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>13</v>
@@ -2320,19 +2320,19 @@
         <v>11953</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6691</v>
+        <v>6792</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>19240</v>
+        <v>20404</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04379228295963055</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02451438450276558</v>
+        <v>0.02488153225077391</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07048833374098484</v>
+        <v>0.07475247775186469</v>
       </c>
     </row>
     <row r="28">
@@ -2349,19 +2349,19 @@
         <v>14584</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7078</v>
+        <v>6993</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26707</v>
+        <v>28460</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.06422814085772005</v>
+        <v>0.06422814085772004</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03117140208393993</v>
+        <v>0.03079682209100479</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1176162843596311</v>
+        <v>0.1253348473354514</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2373,16 +2373,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4044</v>
+        <v>3567</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.02525946029039495</v>
+        <v>0.02525946029039494</v>
       </c>
       <c r="O28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08812889276514274</v>
+        <v>0.07772917599449171</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -2391,19 +2391,19 @@
         <v>15743</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7616</v>
+        <v>7370</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>27956</v>
+        <v>28295</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05767672516675241</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02790186563406824</v>
+        <v>0.02700197388603779</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1024177429594177</v>
+        <v>0.1036618721633832</v>
       </c>
     </row>
     <row r="29">
@@ -2420,19 +2420,19 @@
         <v>11666</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6380</v>
+        <v>6086</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21279</v>
+        <v>21067</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05137444594477247</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02809830587985778</v>
+        <v>0.02680246617529645</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09371037990478047</v>
+        <v>0.09277974160346264</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4127</v>
+        <v>5187</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01843323827445211</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08993282203568816</v>
+        <v>0.1130399941805134</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -2462,19 +2462,19 @@
         <v>12511</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6913</v>
+        <v>6872</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21929</v>
+        <v>21903</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04583636916955529</v>
+        <v>0.04583636916955528</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02532579140619508</v>
+        <v>0.02517729990534198</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08033980567610285</v>
+        <v>0.08024386936197034</v>
       </c>
     </row>
     <row r="30">
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3525</v>
+        <v>3543</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.002999820929147852</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01552191077824385</v>
+        <v>0.01560273091581956</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2515,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4295</v>
+        <v>3302</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.01603938056547455</v>
+        <v>0.01603938056547454</v>
       </c>
       <c r="O30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0935955803760983</v>
+        <v>0.07194479730247622</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5062</v>
+        <v>4619</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.005192032067966067</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01854396916383229</v>
+        <v>0.0169222655959985</v>
       </c>
     </row>
     <row r="31">
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4297</v>
+        <v>4850</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003823884043660411</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01892489761286744</v>
+        <v>0.02136063498956622</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5078</v>
+        <v>4894</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003181012548927707</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01860437448949259</v>
+        <v>0.01792832135068388</v>
       </c>
     </row>
     <row r="32">
@@ -2625,19 +2625,19 @@
         <v>4168</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1381</v>
+        <v>849</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11344</v>
+        <v>11069</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01835502910742999</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00608143142492371</v>
+        <v>0.00374092143800423</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04995967981208752</v>
+        <v>0.0487453532472916</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4178</v>
+        <v>3784</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01756521034001237</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09104531838807592</v>
+        <v>0.08245968569591761</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -2667,19 +2667,19 @@
         <v>4974</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1570</v>
+        <v>1812</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12409</v>
+        <v>12767</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01822224475367337</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005750019938689128</v>
+        <v>0.006639880805384411</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04546255203231469</v>
+        <v>0.0467734061302459</v>
       </c>
     </row>
     <row r="33">
@@ -2771,19 +2771,19 @@
         <v>107981</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>90859</v>
+        <v>88284</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>129025</v>
+        <v>129595</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1984680087874003</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1669983319788397</v>
+        <v>0.1622646815268332</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2371460463587315</v>
+        <v>0.2381952457787188</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>129</v>
@@ -2792,19 +2792,19 @@
         <v>87722</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>75769</v>
+        <v>74331</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>102705</v>
+        <v>101497</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3806723745257051</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3288036666534892</v>
+        <v>0.3225647041556821</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4456914462584822</v>
+        <v>0.4404484523357519</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>238</v>
@@ -2813,19 +2813,19 @@
         <v>195703</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>171926</v>
+        <v>173528</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>223556</v>
+        <v>220275</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2526789661495311</v>
+        <v>0.2526789661495312</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2219793142496982</v>
+        <v>0.2240482235609833</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2886417453816321</v>
+        <v>0.2844048443570528</v>
       </c>
     </row>
     <row r="35">
@@ -2842,19 +2842,19 @@
         <v>245907</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>221958</v>
+        <v>220432</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>270702</v>
+        <v>270434</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.4519748463435564</v>
+        <v>0.4519748463435563</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4079564383591553</v>
+        <v>0.4051520308015401</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4975483758906573</v>
+        <v>0.4970550809927142</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>98</v>
@@ -2863,19 +2863,19 @@
         <v>77090</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>64259</v>
+        <v>64526</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>90921</v>
+        <v>91153</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.334535923826429</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2788534095788945</v>
+        <v>0.2800123063402249</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.394555717582765</v>
+        <v>0.3955641080946533</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>335</v>
@@ -2884,19 +2884,19 @@
         <v>322997</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>293821</v>
+        <v>292190</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>354651</v>
+        <v>349321</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.4170334419736162</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3793621190552944</v>
+        <v>0.3772568730411069</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4579025760107119</v>
+        <v>0.4510204180322963</v>
       </c>
     </row>
     <row r="36">
@@ -2913,19 +2913,19 @@
         <v>110581</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>91730</v>
+        <v>91589</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>132010</v>
+        <v>131390</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2032478712823782</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1685983058985684</v>
+        <v>0.1683402068307359</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.242632581829306</v>
+        <v>0.2414946289471292</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>40</v>
@@ -2934,19 +2934,19 @@
         <v>36889</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>26530</v>
+        <v>26506</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>47967</v>
+        <v>48486</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1600810237249321</v>
+        <v>0.160081023724932</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1151274061828612</v>
+        <v>0.1150245111376337</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2081531211618083</v>
+        <v>0.2104078610557466</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>141</v>
@@ -2955,19 +2955,19 @@
         <v>147471</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>126682</v>
+        <v>126868</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>171990</v>
+        <v>172443</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.1904045119978079</v>
+        <v>0.1904045119978078</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1635630463686898</v>
+        <v>0.1638036012648287</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2220619919457694</v>
+        <v>0.2226468229642066</v>
       </c>
     </row>
     <row r="37">
@@ -2984,19 +2984,19 @@
         <v>37790</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>27219</v>
+        <v>26903</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>51867</v>
+        <v>54793</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06945751501976349</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05002846985964022</v>
+        <v>0.0494468281015311</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09533089132631735</v>
+        <v>0.1007085091659183</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>14</v>
@@ -3005,19 +3005,19 @@
         <v>13898</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8355</v>
+        <v>7803</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>23135</v>
+        <v>22998</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06031043643481207</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03625619499088453</v>
+        <v>0.03386240426691517</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1003933863923025</v>
+        <v>0.09980278942285865</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>48</v>
@@ -3026,19 +3026,19 @@
         <v>51688</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>37914</v>
+        <v>37811</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>66724</v>
+        <v>66786</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06673600016940548</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04895230099359262</v>
+        <v>0.04881909103886641</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08614995504870587</v>
+        <v>0.08623034628342048</v>
       </c>
     </row>
     <row r="38">
@@ -3055,19 +3055,19 @@
         <v>17839</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>11205</v>
+        <v>10934</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>28768</v>
+        <v>28072</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.03278772615829757</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02059477282947692</v>
+        <v>0.02009706934541402</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05287529504290473</v>
+        <v>0.05159593612209287</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>7</v>
@@ -3076,19 +3076,19 @@
         <v>5665</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2400</v>
+        <v>2376</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>11146</v>
+        <v>11376</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02458171975557711</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01041641959954426</v>
+        <v>0.01031117828222379</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04836912948775857</v>
+        <v>0.04936674962245772</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>25</v>
@@ -3097,19 +3097,19 @@
         <v>23504</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>15362</v>
+        <v>15161</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>34181</v>
+        <v>35226</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03034620692571132</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01983481938322647</v>
+        <v>0.01957445074503356</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04413226699559446</v>
+        <v>0.04548212332101337</v>
       </c>
     </row>
     <row r="39">
@@ -3126,19 +3126,19 @@
         <v>12760</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>7376</v>
+        <v>6534</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>23095</v>
+        <v>22873</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02345303034842543</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01355657974069208</v>
+        <v>0.01200982241346919</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0424482516601581</v>
+        <v>0.0420402500082831</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>10</v>
@@ -3147,19 +3147,19 @@
         <v>8744</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>4142</v>
+        <v>4481</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>16974</v>
+        <v>17989</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.03794398918620401</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01797594735980567</v>
+        <v>0.01944399952530215</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.07365876832964131</v>
+        <v>0.07806544163448688</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>21</v>
@@ -3168,19 +3168,19 @@
         <v>21504</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>13514</v>
+        <v>13998</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>33586</v>
+        <v>33831</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0277645008694968</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01744894337700729</v>
+        <v>0.01807278951300836</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04336418518163924</v>
+        <v>0.04368099505194714</v>
       </c>
     </row>
     <row r="40">
@@ -3197,19 +3197,19 @@
         <v>1730</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5604</v>
+        <v>5491</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003180305717680158</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0007858209156815664</v>
+        <v>0.000789951536790056</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01029974731852829</v>
+        <v>0.01009255887047134</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -3231,19 +3231,19 @@
         <v>1730</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>5022</v>
+        <v>5567</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002234074726116959</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0005627959521693208</v>
+        <v>0.0005568429706487574</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.006483970336635008</v>
+        <v>0.007188026998493868</v>
       </c>
     </row>
     <row r="41">
@@ -3260,19 +3260,19 @@
         <v>2747</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7822</v>
+        <v>7525</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.005049605310716089</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.001220190693972947</v>
+        <v>0.001184320003572435</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01437654102875629</v>
+        <v>0.01383071996050482</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -3294,19 +3294,19 @@
         <v>2747</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>7979</v>
+        <v>7834</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.003547204766768694</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0008447486682866256</v>
+        <v>0.0008523480094293274</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01030191195045833</v>
+        <v>0.01011471130250175</v>
       </c>
     </row>
     <row r="42">
@@ -3323,19 +3323,19 @@
         <v>6736</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2792</v>
+        <v>2894</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>13693</v>
+        <v>14484</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01238109103178235</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.005132343087365474</v>
+        <v>0.005318427013567177</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02516694057638116</v>
+        <v>0.02662218171505122</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2171</v>
+        <v>2266</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.001874532546340581</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.009419123743973192</v>
+        <v>0.009832244160278891</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>8</v>
@@ -3365,19 +3365,19 @@
         <v>7168</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3385</v>
+        <v>3516</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>14423</v>
+        <v>14546</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.009255092421545557</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.004370186456670892</v>
+        <v>0.004538997220164371</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01862218928984259</v>
+        <v>0.01878056557086603</v>
       </c>
     </row>
     <row r="43">
@@ -3469,19 +3469,19 @@
         <v>46672</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>34139</v>
+        <v>33578</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>62647</v>
+        <v>64037</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.18437953222132</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1348673700778505</v>
+        <v>0.1326512939061038</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2474861334239491</v>
+        <v>0.2529787302721395</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>92</v>
@@ -3490,19 +3490,19 @@
         <v>63168</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>52616</v>
+        <v>52463</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>73443</v>
+        <v>73824</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4170692613735525</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3473976899637417</v>
+        <v>0.3463870883783548</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.484908662944641</v>
+        <v>0.4874265723599523</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>134</v>
@@ -3511,19 +3511,19 @@
         <v>109840</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>94330</v>
+        <v>94044</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>129590</v>
+        <v>131563</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2714864088688113</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2331490528669496</v>
+        <v>0.2324424433264769</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.320299263013854</v>
+        <v>0.3251761609760284</v>
       </c>
     </row>
     <row r="45">
@@ -3540,19 +3540,19 @@
         <v>93964</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>77516</v>
+        <v>77285</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>111126</v>
+        <v>112461</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.3712043180660419</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3062267836579032</v>
+        <v>0.3053149365018668</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4390030157743293</v>
+        <v>0.4442775001309406</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>71</v>
@@ -3561,19 +3561,19 @@
         <v>49795</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>39889</v>
+        <v>40069</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>59099</v>
+        <v>60119</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.3287710336058506</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.2633689501824754</v>
+        <v>0.2645556773959381</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3902000137267839</v>
+        <v>0.3969405476179961</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>167</v>
@@ -3582,19 +3582,19 @@
         <v>143758</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>126350</v>
+        <v>124375</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>164947</v>
+        <v>164502</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.3553195134866201</v>
+        <v>0.3553195134866202</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.3122910978806206</v>
+        <v>0.3074096331634344</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.4076913483767985</v>
+        <v>0.4065893889186186</v>
       </c>
     </row>
     <row r="46">
@@ -3611,19 +3611,19 @@
         <v>55426</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>42149</v>
+        <v>40955</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>73318</v>
+        <v>72655</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.2189592592003752</v>
+        <v>0.2189592592003751</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1665089988221413</v>
+        <v>0.1617921651895081</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2896442365990413</v>
+        <v>0.2870236987428557</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>31</v>
@@ -3632,19 +3632,19 @@
         <v>25049</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>17377</v>
+        <v>17888</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>34357</v>
+        <v>35224</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1653878677504378</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1147338454018273</v>
+        <v>0.1181064130030398</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2268416625665063</v>
+        <v>0.2325659361854143</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>79</v>
@@ -3653,19 +3653,19 @@
         <v>80475</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>64081</v>
+        <v>64717</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>97991</v>
+        <v>99291</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1989049293257151</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1583860639281383</v>
+        <v>0.1599565401340706</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2421996331015655</v>
+        <v>0.2454122378878218</v>
       </c>
     </row>
     <row r="47">
@@ -3682,19 +3682,19 @@
         <v>14999</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>8178</v>
+        <v>7833</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>27164</v>
+        <v>25879</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.05925420791935529</v>
+        <v>0.05925420791935528</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03230806635360457</v>
+        <v>0.03094399236247879</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1073135403269531</v>
+        <v>0.102234044913937</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>6</v>
@@ -3703,19 +3703,19 @@
         <v>4998</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1642</v>
+        <v>1872</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>11616</v>
+        <v>12207</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.03299679813817159</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01084174453165794</v>
+        <v>0.01235985013259047</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.07669517112455669</v>
+        <v>0.0805973007824892</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>19</v>
@@ -3724,19 +3724,19 @@
         <v>19997</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>11739</v>
+        <v>11776</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>31258</v>
+        <v>31844</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.04942480563664495</v>
+        <v>0.04942480563664496</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02901462307807512</v>
+        <v>0.0291071475336936</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.07725959064096553</v>
+        <v>0.07870783778547544</v>
       </c>
     </row>
     <row r="48">
@@ -3753,19 +3753,19 @@
         <v>21303</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>12205</v>
+        <v>12156</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>34649</v>
+        <v>35944</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.08415795568432527</v>
+        <v>0.08415795568432526</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.04821705482959191</v>
+        <v>0.04802143960603635</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1368799165135385</v>
+        <v>0.1419979581538164</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>7</v>
@@ -3774,19 +3774,19 @@
         <v>5035</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1907</v>
+        <v>2323</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>9794</v>
+        <v>10231</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.03324554903144212</v>
+        <v>0.03324554903144213</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01259342594221377</v>
+        <v>0.01533484132799846</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.06466268732471619</v>
+        <v>0.0675520091973426</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>22</v>
@@ -3795,19 +3795,19 @@
         <v>26338</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>16042</v>
+        <v>16496</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>42847</v>
+        <v>40461</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.06509901078676936</v>
+        <v>0.06509901078676934</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.03965079243642632</v>
+        <v>0.04077206918781705</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1059013387634209</v>
+        <v>0.1000054015805708</v>
       </c>
     </row>
     <row r="49">
@@ -3824,19 +3824,19 @@
         <v>9076</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>3098</v>
+        <v>2803</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>26489</v>
+        <v>24965</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.03585537471192696</v>
+        <v>0.03585537471192695</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01223919172686217</v>
+        <v>0.01107431579515254</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1046469535756483</v>
+        <v>0.09862578205739035</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>2</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>5336</v>
+        <v>5968</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.0105393608138881</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.03523425803620289</v>
+        <v>0.03940117138739601</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>8</v>
@@ -3866,19 +3866,19 @@
         <v>10672</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>4542</v>
+        <v>4433</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>26862</v>
+        <v>27893</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.02637838186030032</v>
+        <v>0.02637838186030031</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01122550117172324</v>
+        <v>0.01095680003590937</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.06639426665243815</v>
+        <v>0.06894162411485166</v>
       </c>
     </row>
     <row r="50">
@@ -3895,19 +3895,19 @@
         <v>3270</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1126</v>
+        <v>779</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>7925</v>
+        <v>8219</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01291892966231243</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.004448712786462871</v>
+        <v>0.003078962242988496</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03130624517978445</v>
+        <v>0.03246879234659675</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>3</v>
@@ -3916,19 +3916,19 @@
         <v>1816</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>5284</v>
+        <v>4952</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01199012928665744</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.003025808389327058</v>
+        <v>0.002993763216127924</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.0348858684543013</v>
+        <v>0.03269497762179863</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>7</v>
@@ -3937,19 +3937,19 @@
         <v>5086</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2144</v>
+        <v>2194</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>10357</v>
+        <v>10483</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01257123533112262</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.005300112595017681</v>
+        <v>0.005422546514603149</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02559945822843471</v>
+        <v>0.02591137664746949</v>
       </c>
     </row>
     <row r="51">
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>10425</v>
+        <v>11256</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.01262313919971632</v>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.04118597419594742</v>
+        <v>0.04446531942530939</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>10693</v>
+        <v>11427</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.007897695437415852</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.02642904812653684</v>
+        <v>0.02824330393295831</v>
       </c>
     </row>
     <row r="52">
@@ -4029,19 +4029,19 @@
         <v>5226</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>2360</v>
+        <v>2338</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>11807</v>
+        <v>11505</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.02064728333462668</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.009324811734417588</v>
+        <v>0.00923715049441731</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.04664211222942662</v>
+        <v>0.04544891857111405</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>0</v>
@@ -4063,19 +4063,19 @@
         <v>5226</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1949</v>
+        <v>2121</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>11199</v>
+        <v>11246</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.01291801926660034</v>
+        <v>0.01291801926660035</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.004818351231069776</v>
+        <v>0.005243262458376285</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02767963613393127</v>
+        <v>0.02779659028475557</v>
       </c>
     </row>
     <row r="53">
@@ -4167,19 +4167,19 @@
         <v>21816</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>9672</v>
+        <v>9083</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>40384</v>
+        <v>37818</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2574405203889643</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1141387279152447</v>
+        <v>0.107182032654191</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.4765520798513867</v>
+        <v>0.4462647604087717</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>69</v>
@@ -4188,19 +4188,19 @@
         <v>55134</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>44036</v>
+        <v>41760</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>67507</v>
+        <v>66774</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.4359245682301856</v>
+        <v>0.4359245682301857</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3481777981559491</v>
+        <v>0.3301748110016158</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.5337468605270501</v>
+        <v>0.527954503883121</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>75</v>
@@ -4209,19 +4209,19 @@
         <v>76951</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>59652</v>
+        <v>58740</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>98846</v>
+        <v>95776</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.3643156338919307</v>
+        <v>0.3643156338919308</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2824157167841714</v>
+        <v>0.2780972490691203</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.4679775219849339</v>
+        <v>0.4534426336789234</v>
       </c>
     </row>
     <row r="55">
@@ -4238,19 +4238,19 @@
         <v>23198</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>12483</v>
+        <v>12849</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>36457</v>
+        <v>37741</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2737414861970906</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1473063132882795</v>
+        <v>0.151619145031524</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.4302089175698984</v>
+        <v>0.4453534819226876</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>46</v>
@@ -4259,19 +4259,19 @@
         <v>36939</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>26894</v>
+        <v>27594</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>48184</v>
+        <v>48848</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2920590158776845</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2126420768810282</v>
+        <v>0.2181779352883312</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3809699834635568</v>
+        <v>0.3862220810201786</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>58</v>
@@ -4280,19 +4280,19 @@
         <v>60136</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>45952</v>
+        <v>44790</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>79557</v>
+        <v>77220</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.2847099065539001</v>
+        <v>0.2847099065539002</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2175573418745516</v>
+        <v>0.2120534092533465</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.3766530863705953</v>
+        <v>0.3655882951259057</v>
       </c>
     </row>
     <row r="56">
@@ -4309,19 +4309,19 @@
         <v>25072</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>13442</v>
+        <v>14555</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>37964</v>
+        <v>41334</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.2958582700246428</v>
+        <v>0.2958582700246427</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1586175442131282</v>
+        <v>0.1717498368250438</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4479860761568759</v>
+        <v>0.4877539859636921</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>17</v>
@@ -4330,19 +4330,19 @@
         <v>19092</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>11013</v>
+        <v>11625</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>30679</v>
+        <v>30864</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1509548024965567</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.0870762774918394</v>
+        <v>0.09191594656511833</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2425671030321767</v>
+        <v>0.2440292616778178</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>29</v>
@@ -4351,19 +4351,19 @@
         <v>44164</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>30257</v>
+        <v>31100</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>61250</v>
+        <v>62925</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.2090909945938747</v>
+        <v>0.2090909945938748</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1432475737722165</v>
+        <v>0.1472395529053458</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.28998412793417</v>
+        <v>0.2979097717988028</v>
       </c>
     </row>
     <row r="57">
@@ -4380,19 +4380,19 @@
         <v>8573</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>2701</v>
+        <v>2845</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>20420</v>
+        <v>21467</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.101169431319175</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.03187294312967062</v>
+        <v>0.0335683396974535</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.2409645992783502</v>
+        <v>0.2533165506617949</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>3</v>
@@ -4401,19 +4401,19 @@
         <v>1761</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>4847</v>
+        <v>5717</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.01392670599258483</v>
+        <v>0.01392670599258484</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.003110090246546985</v>
+        <v>0.003460618010812799</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.03832027075624002</v>
+        <v>0.0451994621261624</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>7</v>
@@ -4422,19 +4422,19 @@
         <v>10335</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>3666</v>
+        <v>3879</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>23288</v>
+        <v>23302</v>
       </c>
       <c r="U57" s="6" t="n">
-        <v>0.04892904185937233</v>
+        <v>0.04892904185937234</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.01735802445210433</v>
+        <v>0.0183624375319105</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.1102547039146611</v>
+        <v>0.1103207130773143</v>
       </c>
     </row>
     <row r="58">
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>11832</v>
+        <v>11243</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.02751624704825803</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.1396189714690497</v>
+        <v>0.1326705254978779</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>5</v>
@@ -4472,19 +4472,19 @@
         <v>7394</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>2435</v>
+        <v>2558</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>16149</v>
+        <v>16120</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.05845930916413138</v>
+        <v>0.05845930916413139</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.01925314808085057</v>
+        <v>0.02022356995002187</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.1276794597910868</v>
+        <v>0.1274520581520592</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>6</v>
@@ -4493,19 +4493,19 @@
         <v>9726</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>3869</v>
+        <v>3136</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>21904</v>
+        <v>19876</v>
       </c>
       <c r="U58" s="6" t="n">
-        <v>0.04604475598652033</v>
+        <v>0.04604475598652034</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.01831859210827124</v>
+        <v>0.01484702157576449</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.1037046474872347</v>
+        <v>0.09409910735967054</v>
       </c>
     </row>
     <row r="59">
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>10501</v>
+        <v>11405</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.03828629578221589</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.1239150174300219</v>
+        <v>0.1345885628246397</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>1</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>9971</v>
+        <v>11056</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.01640970060815624</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.07883896987415119</v>
+        <v>0.08741791544583746</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>3</v>
@@ -4564,19 +4564,19 @@
         <v>5320</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>1516</v>
+        <v>1504</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>15861</v>
+        <v>14974</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.02518672962734022</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.00717677929513948</v>
+        <v>0.007121715678698575</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.07509061969030262</v>
+        <v>0.07089354306818568</v>
       </c>
     </row>
     <row r="60">
@@ -4609,16 +4609,16 @@
         <v>0</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>8966</v>
+        <v>8564</v>
       </c>
       <c r="N60" s="6" t="n">
-        <v>0.01837011490523719</v>
+        <v>0.0183701149052372</v>
       </c>
       <c r="O60" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.07089165834430333</v>
+        <v>0.06771192507171062</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>2</v>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>8867</v>
+        <v>7052</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.01099990805512385</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.04197994875778741</v>
+        <v>0.0333859432481414</v>
       </c>
     </row>
     <row r="61">
@@ -4706,16 +4706,16 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>2473</v>
+        <v>2997</v>
       </c>
       <c r="G62" s="6" t="n">
-        <v>0.005987749239653429</v>
+        <v>0.005987749239653428</v>
       </c>
       <c r="H62" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.02918627964588</v>
+        <v>0.03536124728505585</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>1</v>
@@ -4727,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>8379</v>
+        <v>7741</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.01389578272546354</v>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.06624792219792695</v>
+        <v>0.06120210619548474</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>2</v>
@@ -4748,16 +4748,16 @@
         <v>0</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>11837</v>
+        <v>9673</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.01072302943193748</v>
+        <v>0.01072302943193749</v>
       </c>
       <c r="V62" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.05604032390204967</v>
+        <v>0.04579573229575845</v>
       </c>
     </row>
     <row r="63">
@@ -4849,19 +4849,19 @@
         <v>339745</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>303373</v>
+        <v>305138</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>378013</v>
+        <v>378973</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.207702472937413</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.1854663604598033</v>
+        <v>0.1865455610243572</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.2310974684484703</v>
+        <v>0.2316843422492249</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>509</v>
@@ -4870,19 +4870,19 @@
         <v>352646</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>324946</v>
+        <v>326293</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>378439</v>
+        <v>379286</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.4035165714441059</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.3718205584280838</v>
+        <v>0.3733625655723756</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.4330305007415179</v>
+        <v>0.43400008350849</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>839</v>
@@ -4891,19 +4891,19 @@
         <v>692391</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>649980</v>
+        <v>649542</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>737061</v>
+        <v>740934</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.2758901217001617</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.2589911280151859</v>
+        <v>0.2588165669104734</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.2936894566171755</v>
+        <v>0.2952326736505482</v>
       </c>
     </row>
     <row r="65">
@@ -4920,19 +4920,19 @@
         <v>669725</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>626945</v>
+        <v>629811</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>716065</v>
+        <v>717939</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.4094346591973827</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.3832811630788863</v>
+        <v>0.3850331539788134</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.4377646797179142</v>
+        <v>0.4389101866151068</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>388</v>
@@ -4941,19 +4941,19 @@
         <v>282529</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>257678</v>
+        <v>258344</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>306492</v>
+        <v>307722</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.3232854667451037</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.2948494932453323</v>
+        <v>0.2956120011693057</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.3507046347241107</v>
+        <v>0.3521119503356164</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>1057</v>
@@ -4962,19 +4962,19 @@
         <v>952254</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>902768</v>
+        <v>900247</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>1002512</v>
+        <v>1004714</v>
       </c>
       <c r="U65" s="6" t="n">
-        <v>0.3794352315722587</v>
+        <v>0.3794352315722586</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.3597170537908661</v>
+        <v>0.3587125912898495</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.3994611365279977</v>
+        <v>0.4003384953415068</v>
       </c>
     </row>
     <row r="66">
@@ -4991,19 +4991,19 @@
         <v>355659</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>321552</v>
+        <v>320367</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>396209</v>
+        <v>395717</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.2174310299236658</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.1965797292196301</v>
+        <v>0.1958558498245855</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.2422211023781745</v>
+        <v>0.2419202983233371</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>169</v>
@@ -5012,19 +5012,19 @@
         <v>143758</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>124537</v>
+        <v>121082</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>166920</v>
+        <v>164058</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.1644955033754316</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.142501741698198</v>
+        <v>0.1385486566293949</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.1909994622078752</v>
+        <v>0.1877238282343784</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>481</v>
@@ -5033,19 +5033,19 @@
         <v>499416</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>453162</v>
+        <v>458253</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>538924</v>
+        <v>545735</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.1989974793322165</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.180567083711776</v>
+        <v>0.182595372149856</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.2147397546549261</v>
+        <v>0.2174534674067093</v>
       </c>
     </row>
     <row r="67">
@@ -5062,19 +5062,19 @@
         <v>112903</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>89767</v>
+        <v>91556</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>139265</v>
+        <v>137086</v>
       </c>
       <c r="G67" s="6" t="n">
-        <v>0.06902316207172185</v>
+        <v>0.06902316207172188</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.05487869996393435</v>
+        <v>0.05597240196211316</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.08513928390262099</v>
+        <v>0.08380723454842459</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>42</v>
@@ -5083,19 +5083,19 @@
         <v>34758</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>24467</v>
+        <v>25066</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>47009</v>
+        <v>47367</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.03977211288007061</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.02799622141012791</v>
+        <v>0.02868243688853013</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.05379001342745495</v>
+        <v>0.05420046925744162</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>140</v>
@@ -5104,19 +5104,19 @@
         <v>147661</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>123543</v>
+        <v>122640</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>175069</v>
+        <v>175211</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.05883717299620068</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.04922687712773113</v>
+        <v>0.04886699972385426</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.06975780410771264</v>
+        <v>0.06981455711838158</v>
       </c>
     </row>
     <row r="68">
@@ -5133,19 +5133,19 @@
         <v>72061</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>54817</v>
+        <v>54360</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>95400</v>
+        <v>94590</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.04405433703379352</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.03351236872821081</v>
+        <v>0.03323303287337017</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.05832271721880739</v>
+        <v>0.05782744610474153</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>30</v>
@@ -5154,19 +5154,19 @@
         <v>27966</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>18747</v>
+        <v>18549</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>40406</v>
+        <v>40245</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.03200066632145562</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.02145182656974024</v>
+        <v>0.0212245594182798</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.04623487758174865</v>
+        <v>0.04605094219151016</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>88</v>
@@ -5175,19 +5175,19 @@
         <v>100027</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>80154</v>
+        <v>78791</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>125607</v>
+        <v>124041</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.0398569300487871</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.03193829052943731</v>
+        <v>0.03139495776904737</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.05004922855049918</v>
+        <v>0.04942540614967823</v>
       </c>
     </row>
     <row r="69">
@@ -5204,19 +5204,19 @@
         <v>52592</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>38964</v>
+        <v>38570</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>71968</v>
+        <v>71613</v>
       </c>
       <c r="G69" s="6" t="n">
-        <v>0.03215222179474098</v>
+        <v>0.03215222179474099</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.02382043882193783</v>
+        <v>0.0235794767902103</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.04399730598541682</v>
+        <v>0.04378020277493212</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>23</v>
@@ -5225,19 +5225,19 @@
         <v>21764</v>
       </c>
       <c r="L69" s="5" t="n">
-        <v>13008</v>
+        <v>13260</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>32325</v>
+        <v>33743</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.02490335758799686</v>
       </c>
       <c r="O69" s="6" t="n">
-        <v>0.01488395358328488</v>
+        <v>0.01517325918969204</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.03698780879676047</v>
+        <v>0.03861089650805435</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>69</v>
@@ -5246,19 +5246,19 @@
         <v>74356</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>58746</v>
+        <v>57086</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>97854</v>
+        <v>96068</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.02962797553143408</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.0234080508314938</v>
+        <v>0.0227465012372526</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.03899078463537794</v>
+        <v>0.03827913139226262</v>
       </c>
     </row>
     <row r="70">
@@ -5275,19 +5275,19 @@
         <v>5682</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>2533</v>
+        <v>2697</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>11278</v>
+        <v>11434</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.003473479371361684</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.001548452279141709</v>
+        <v>0.001648680134744078</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.006894991973618413</v>
+        <v>0.006989878632443542</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>6</v>
@@ -5296,19 +5296,19 @@
         <v>4875</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>1794</v>
+        <v>2039</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>10930</v>
+        <v>10918</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.005578749854115627</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.002052990742920955</v>
+        <v>0.002332624427098833</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.01250629281798718</v>
+        <v>0.01249252651182379</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>14</v>
@@ -5317,19 +5317,19 @@
         <v>10557</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>5552</v>
+        <v>5843</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>18093</v>
+        <v>17606</v>
       </c>
       <c r="U70" s="6" t="n">
-        <v>0.004206590241944384</v>
+        <v>0.004206590241944385</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.002212419815281066</v>
+        <v>0.002328390418754921</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.007209237440598251</v>
+        <v>0.007015111056755993</v>
       </c>
     </row>
     <row r="71">
@@ -5346,19 +5346,19 @@
         <v>6811</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>2484</v>
+        <v>2723</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>14315</v>
+        <v>15439</v>
       </c>
       <c r="G71" s="6" t="n">
         <v>0.004163861760614179</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>0.001518770748242985</v>
+        <v>0.001664594841590086</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.008751548891306015</v>
+        <v>0.009438470420674694</v>
       </c>
       <c r="J71" s="5" t="n">
         <v>0</v>
@@ -5380,19 +5380,19 @@
         <v>6811</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>2659</v>
+        <v>2982</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>15014</v>
+        <v>15882</v>
       </c>
       <c r="U71" s="6" t="n">
         <v>0.002713894953348277</v>
       </c>
       <c r="V71" s="6" t="n">
-        <v>0.00105959685001631</v>
+        <v>0.001188247500155921</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.005982466883018982</v>
+        <v>0.006328359298987976</v>
       </c>
     </row>
     <row r="72">
@@ -5409,19 +5409,19 @@
         <v>20553</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>12864</v>
+        <v>13119</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>30363</v>
+        <v>31202</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.01256477590930635</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>0.007864528421359027</v>
+        <v>0.008020201440210588</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.0185625460839675</v>
+        <v>0.01907509033022479</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>7</v>
@@ -5430,19 +5430,19 @@
         <v>5635</v>
       </c>
       <c r="L72" s="5" t="n">
-        <v>2450</v>
+        <v>2171</v>
       </c>
       <c r="M72" s="5" t="n">
-        <v>12910</v>
+        <v>12184</v>
       </c>
       <c r="N72" s="6" t="n">
-        <v>0.006447571791720194</v>
+        <v>0.006447571791720195</v>
       </c>
       <c r="O72" s="6" t="n">
-        <v>0.002803905840115444</v>
+        <v>0.002484725994771892</v>
       </c>
       <c r="P72" s="6" t="n">
-        <v>0.01477182252590052</v>
+        <v>0.01394152597575011</v>
       </c>
       <c r="Q72" s="5" t="n">
         <v>30</v>
@@ -5451,19 +5451,19 @@
         <v>26187</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>17837</v>
+        <v>17752</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>37498</v>
+        <v>38822</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.01043460362364864</v>
       </c>
       <c r="V72" s="6" t="n">
-        <v>0.007107519861224847</v>
+        <v>0.007073656314862708</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.0149415221458575</v>
+        <v>0.01546920680746918</v>
       </c>
     </row>
     <row r="73">
